--- a/wrangling/Consolidated_TimeSeries_Data.xlsx
+++ b/wrangling/Consolidated_TimeSeries_Data.xlsx
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>275.7459182421082</v>
+        <v>273.9315408656047</v>
       </c>
       <c r="C200" t="n">
-        <v>277.904776764614</v>
+        <v>276.0761943399006</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>277.904776764614</v>
+        <v>276.0761943399006</v>
       </c>
       <c r="C201" t="n">
-        <v>288.5713219174324</v>
+        <v>286.6725548157013</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0.03838201443314149</v>
+        <v>0.03838201443314104</v>
       </c>
       <c r="F201" t="n">
         <v>-0.02861222793562468</v>
@@ -5279,16 +5279,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>288.5713219174324</v>
+        <v>286.6725548157013</v>
       </c>
       <c r="C202" t="n">
-        <v>291.7380475324096</v>
+        <v>289.8184437294501</v>
       </c>
       <c r="D202" t="n">
         <v>2</v>
       </c>
       <c r="E202" t="n">
-        <v>0.01097380569190198</v>
+        <v>0.01097380569190243</v>
       </c>
       <c r="F202" t="n">
         <v>0.04204928642871675</v>
@@ -5304,16 +5304,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>291.7380475324096</v>
+        <v>289.8184437294501</v>
       </c>
       <c r="C203" t="n">
-        <v>283.3071658158915</v>
+        <v>281.4430362739762</v>
       </c>
       <c r="D203" t="n">
         <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.02889880763866259</v>
+        <v>-0.02889880763866248</v>
       </c>
       <c r="F203" t="n">
         <v>0.05588525805438338</v>
@@ -5329,16 +5329,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>283.3071658158915</v>
+        <v>281.4430362739762</v>
       </c>
       <c r="C204" t="n">
-        <v>310.748465818793</v>
+        <v>308.7037755845398</v>
       </c>
       <c r="D204" t="n">
         <v>4</v>
       </c>
       <c r="E204" t="n">
-        <v>0.09686059272053282</v>
+        <v>0.09686059272053238</v>
       </c>
       <c r="F204" t="n">
         <v>0.06377185797954454</v>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>310.748465818793</v>
+        <v>308.7037755845398</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
@@ -15453,10 +15453,10 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>301.3653868045861</v>
+        <v>300.3713502134019</v>
       </c>
       <c r="C626" t="n">
-        <v>278.4159169801982</v>
+        <v>277.4975779102045</v>
       </c>
       <c r="D626" t="n">
         <v>0</v>
@@ -15478,16 +15478,16 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>278.4159169801982</v>
+        <v>277.4975779102045</v>
       </c>
       <c r="C627" t="n">
-        <v>305.3609876196886</v>
+        <v>304.3537717664263</v>
       </c>
       <c r="D627" t="n">
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>0.09677992167885541</v>
+        <v>0.09677992167885585</v>
       </c>
       <c r="F627" t="n">
         <v>-0.02861222793562468</v>
@@ -15503,16 +15503,16 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>305.3609876196886</v>
+        <v>304.3537717664263</v>
       </c>
       <c r="C628" t="n">
-        <v>326.6449340411529</v>
+        <v>325.5675143009344</v>
       </c>
       <c r="D628" t="n">
         <v>2</v>
       </c>
       <c r="E628" t="n">
-        <v>0.06970093523529064</v>
+        <v>0.06970093523529042</v>
       </c>
       <c r="F628" t="n">
         <v>0.04204928642871675</v>
@@ -15528,16 +15528,16 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>326.6449340411529</v>
+        <v>325.5675143009344</v>
       </c>
       <c r="C629" t="n">
-        <v>357.6667115156962</v>
+        <v>356.4869682065363</v>
       </c>
       <c r="D629" t="n">
         <v>3</v>
       </c>
       <c r="E629" t="n">
-        <v>0.09497094319128485</v>
+        <v>0.09497094319128507</v>
       </c>
       <c r="F629" t="n">
         <v>0.05588525805438338</v>
@@ -15553,10 +15553,10 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>357.6667115156962</v>
+        <v>356.4869682065363</v>
       </c>
       <c r="C630" t="n">
-        <v>374.0575516829164</v>
+        <v>372.8237441195327</v>
       </c>
       <c r="D630" t="n">
         <v>4</v>
@@ -15578,7 +15578,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>374.0575516829164</v>
+        <v>372.8237441195327</v>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="n">
@@ -20925,16 +20925,16 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>46.31123064615832</v>
+        <v>45.97709478291041</v>
       </c>
       <c r="C854" t="n">
-        <v>49.49469298966644</v>
+        <v>49.13758842264141</v>
       </c>
       <c r="D854" t="n">
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>0.06874061213858496</v>
+        <v>0.06874061213858473</v>
       </c>
       <c r="F854" t="n">
         <v>-0.02508716602366845</v>
@@ -20950,16 +20950,16 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>49.49469298966644</v>
+        <v>49.13758842264141</v>
       </c>
       <c r="C855" t="n">
-        <v>50.24903060338462</v>
+        <v>49.88648348503407</v>
       </c>
       <c r="D855" t="n">
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>0.01524077771076726</v>
+        <v>0.01524077771076748</v>
       </c>
       <c r="F855" t="n">
         <v>-0.02861222793562468</v>
@@ -20975,16 +20975,16 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>50.24903060338462</v>
+        <v>49.88648348503407</v>
       </c>
       <c r="C856" t="n">
-        <v>53.71462851705952</v>
+        <v>53.32707708475749</v>
       </c>
       <c r="D856" t="n">
         <v>2</v>
       </c>
       <c r="E856" t="n">
-        <v>0.06896845316338251</v>
+        <v>0.06896845316338229</v>
       </c>
       <c r="F856" t="n">
         <v>0.04204928642871675</v>
@@ -21000,16 +21000,16 @@
         </is>
       </c>
       <c r="B857" t="n">
-        <v>53.71462851705952</v>
+        <v>53.32707708475749</v>
       </c>
       <c r="C857" t="n">
-        <v>53.33893370916541</v>
+        <v>52.954092917613</v>
       </c>
       <c r="D857" t="n">
         <v>3</v>
       </c>
       <c r="E857" t="n">
-        <v>-0.006994273594851275</v>
+        <v>-0.00699427359485072</v>
       </c>
       <c r="F857" t="n">
         <v>0.05588525805438338</v>
@@ -21025,16 +21025,16 @@
         </is>
       </c>
       <c r="B858" t="n">
-        <v>53.33893370916541</v>
+        <v>52.954092917613</v>
       </c>
       <c r="C858" t="n">
-        <v>51.50132034313562</v>
+        <v>51.12973794527748</v>
       </c>
       <c r="D858" t="n">
         <v>4</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.03445163294882347</v>
+        <v>-0.03445163294882392</v>
       </c>
       <c r="F858" t="n">
         <v>0.06377185797954454</v>
@@ -21050,7 +21050,7 @@
         </is>
       </c>
       <c r="B859" t="n">
-        <v>51.50132034313562</v>
+        <v>51.12973794527748</v>
       </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="n">
@@ -29997,16 +29997,16 @@
         </is>
       </c>
       <c r="B1232" t="n">
-        <v>18.84584191043054</v>
+        <v>18.84421375994153</v>
       </c>
       <c r="C1232" t="n">
-        <v>15.82442056149998</v>
+        <v>15.82305344093312</v>
       </c>
       <c r="D1232" t="n">
         <v>0</v>
       </c>
       <c r="E1232" t="n">
-        <v>-0.160322970090198</v>
+        <v>-0.1603229700901985</v>
       </c>
       <c r="F1232" t="n">
         <v>-0.02508716602366845</v>
@@ -30022,16 +30022,16 @@
         </is>
       </c>
       <c r="B1233" t="n">
-        <v>15.82442056149998</v>
+        <v>15.82305344093312</v>
       </c>
       <c r="C1233" t="n">
-        <v>14.68662970202621</v>
+        <v>14.68536087872582</v>
       </c>
       <c r="D1233" t="n">
         <v>1</v>
       </c>
       <c r="E1233" t="n">
-        <v>-0.07190094923551016</v>
+        <v>-0.07190094923550994</v>
       </c>
       <c r="F1233" t="n">
         <v>-0.02861222793562468</v>
@@ -30047,16 +30047,16 @@
         </is>
       </c>
       <c r="B1234" t="n">
-        <v>14.68662970202621</v>
+        <v>14.68536087872582</v>
       </c>
       <c r="C1234" t="n">
-        <v>21.62584326831156</v>
+        <v>21.62397494491904</v>
       </c>
       <c r="D1234" t="n">
         <v>2</v>
       </c>
       <c r="E1234" t="n">
-        <v>0.4724850906622908</v>
+        <v>0.4724850906622902</v>
       </c>
       <c r="F1234" t="n">
         <v>0.04204928642871675</v>
@@ -30072,16 +30072,16 @@
         </is>
       </c>
       <c r="B1235" t="n">
-        <v>21.62584326831156</v>
+        <v>21.62397494491904</v>
       </c>
       <c r="C1235" t="n">
-        <v>33.18218450414932</v>
+        <v>33.17931779274507</v>
       </c>
       <c r="D1235" t="n">
         <v>3</v>
       </c>
       <c r="E1235" t="n">
-        <v>0.5343764445371393</v>
+        <v>0.5343764445371395</v>
       </c>
       <c r="F1235" t="n">
         <v>0.05588525805438338</v>
@@ -30097,16 +30097,16 @@
         </is>
       </c>
       <c r="B1236" t="n">
-        <v>33.18218450414932</v>
+        <v>33.17931779274507</v>
       </c>
       <c r="C1236" t="n">
-        <v>44.82058339565857</v>
+        <v>44.81671120702827</v>
       </c>
       <c r="D1236" t="n">
         <v>4</v>
       </c>
       <c r="E1236" t="n">
-        <v>0.3507423958194766</v>
+        <v>0.3507423958194769</v>
       </c>
       <c r="F1236" t="n">
         <v>0.06377185797954454</v>
@@ -30122,7 +30122,7 @@
         </is>
       </c>
       <c r="B1237" t="n">
-        <v>44.82058339565857</v>
+        <v>44.81671120702827</v>
       </c>
       <c r="C1237" t="inlineStr"/>
       <c r="D1237" t="n">
@@ -39069,16 +39069,16 @@
         </is>
       </c>
       <c r="B1610" t="n">
-        <v>17.93130775179949</v>
+        <v>17.86457419113035</v>
       </c>
       <c r="C1610" t="n">
-        <v>16.41403600312434</v>
+        <v>16.35294915532707</v>
       </c>
       <c r="D1610" t="n">
         <v>0</v>
       </c>
       <c r="E1610" t="n">
-        <v>-0.08461578874652265</v>
+        <v>-0.08461578874652309</v>
       </c>
       <c r="F1610" t="n">
         <v>-0.02508716602366845</v>
@@ -39094,16 +39094,16 @@
         </is>
       </c>
       <c r="B1611" t="n">
-        <v>16.41403600312434</v>
+        <v>16.35294915532707</v>
       </c>
       <c r="C1611" t="n">
-        <v>17.07505176264802</v>
+        <v>17.011504863643</v>
       </c>
       <c r="D1611" t="n">
         <v>1</v>
       </c>
       <c r="E1611" t="n">
-        <v>0.04027137258611235</v>
+        <v>0.04027137258611213</v>
       </c>
       <c r="F1611" t="n">
         <v>-0.02861222793562468</v>
@@ -39119,16 +39119,16 @@
         </is>
       </c>
       <c r="B1612" t="n">
-        <v>17.07505176264802</v>
+        <v>17.011504863643</v>
       </c>
       <c r="C1612" t="n">
-        <v>17.95518200725902</v>
+        <v>17.88835959562053</v>
       </c>
       <c r="D1612" t="n">
         <v>2</v>
       </c>
       <c r="E1612" t="n">
-        <v>0.0515448068237363</v>
+        <v>0.05154480682373652</v>
       </c>
       <c r="F1612" t="n">
         <v>0.04204928642871675</v>
@@ -39144,16 +39144,16 @@
         </is>
       </c>
       <c r="B1613" t="n">
-        <v>17.95518200725902</v>
+        <v>17.88835959562053</v>
       </c>
       <c r="C1613" t="n">
-        <v>17.90734033028797</v>
+        <v>17.84069596731705</v>
       </c>
       <c r="D1613" t="n">
         <v>3</v>
       </c>
       <c r="E1613" t="n">
-        <v>-0.002664505263812122</v>
+        <v>-0.002664505263811567</v>
       </c>
       <c r="F1613" t="n">
         <v>0.05588525805438338</v>
@@ -39169,16 +39169,16 @@
         </is>
       </c>
       <c r="B1614" t="n">
-        <v>17.90734033028797</v>
+        <v>17.84069596731705</v>
       </c>
       <c r="C1614" t="n">
-        <v>20.05954395453073</v>
+        <v>19.98488990185292</v>
       </c>
       <c r="D1614" t="n">
         <v>4</v>
       </c>
       <c r="E1614" t="n">
-        <v>0.1201855543339725</v>
+        <v>0.1201855543339732</v>
       </c>
       <c r="F1614" t="n">
         <v>0.06377185797954454</v>
@@ -39194,7 +39194,7 @@
         </is>
       </c>
       <c r="B1615" t="n">
-        <v>20.05954395453073</v>
+        <v>19.98488990185292</v>
       </c>
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="n">
@@ -42093,10 +42093,10 @@
         </is>
       </c>
       <c r="B1736" t="n">
-        <v>64.13427680483079</v>
+        <v>63.55321003020377</v>
       </c>
       <c r="C1736" t="n">
-        <v>66.19474727229547</v>
+        <v>65.59501230667307</v>
       </c>
       <c r="D1736" t="n">
         <v>0</v>
@@ -42118,16 +42118,16 @@
         </is>
       </c>
       <c r="B1737" t="n">
-        <v>66.19474727229547</v>
+        <v>65.59501230667307</v>
       </c>
       <c r="C1737" t="n">
-        <v>79.71409991663116</v>
+        <v>78.99187746027121</v>
       </c>
       <c r="D1737" t="n">
         <v>1</v>
       </c>
       <c r="E1737" t="n">
-        <v>0.2042360338460563</v>
+        <v>0.204236033846056</v>
       </c>
       <c r="F1737" t="n">
         <v>-0.02861222793562468</v>
@@ -42143,16 +42143,16 @@
         </is>
       </c>
       <c r="B1738" t="n">
-        <v>79.71409991663116</v>
+        <v>78.99187746027121</v>
       </c>
       <c r="C1738" t="n">
-        <v>79.18158887180229</v>
+        <v>78.46419105042209</v>
       </c>
       <c r="D1738" t="n">
         <v>2</v>
       </c>
       <c r="E1738" t="n">
-        <v>-0.006680261652402653</v>
+        <v>-0.006680261652402431</v>
       </c>
       <c r="F1738" t="n">
         <v>0.04204928642871675</v>
@@ -42168,10 +42168,10 @@
         </is>
       </c>
       <c r="B1739" t="n">
-        <v>79.18158887180229</v>
+        <v>78.46419105042209</v>
       </c>
       <c r="C1739" t="n">
-        <v>67.97544734617766</v>
+        <v>67.35957895393757</v>
       </c>
       <c r="D1739" t="n">
         <v>3</v>
@@ -42193,16 +42193,16 @@
         </is>
       </c>
       <c r="B1740" t="n">
-        <v>67.97544734617766</v>
+        <v>67.35957895393757</v>
       </c>
       <c r="C1740" t="n">
-        <v>73.8505639805316</v>
+        <v>73.18146609474516</v>
       </c>
       <c r="D1740" t="n">
         <v>4</v>
       </c>
       <c r="E1740" t="n">
-        <v>0.08642998117296408</v>
+        <v>0.08642998117296385</v>
       </c>
       <c r="F1740" t="n">
         <v>0.06377185797954454</v>
@@ -42218,7 +42218,7 @@
         </is>
       </c>
       <c r="B1741" t="n">
-        <v>73.8505639805316</v>
+        <v>73.18146609474516</v>
       </c>
       <c r="C1741" t="inlineStr"/>
       <c r="D1741" t="n">
@@ -43821,16 +43821,16 @@
         </is>
       </c>
       <c r="B1808" t="n">
-        <v>40.87075898219616</v>
+        <v>40.62780202655561</v>
       </c>
       <c r="C1808" t="n">
-        <v>35.64052002868832</v>
+        <v>35.42865432178066</v>
       </c>
       <c r="D1808" t="n">
         <v>0</v>
       </c>
       <c r="E1808" t="n">
-        <v>-0.1279701939419867</v>
+        <v>-0.1279701939419863</v>
       </c>
       <c r="F1808" t="n">
         <v>-0.02508716602366845</v>
@@ -43846,16 +43846,16 @@
         </is>
       </c>
       <c r="B1809" t="n">
-        <v>35.64052002868832</v>
+        <v>35.42865432178066</v>
       </c>
       <c r="C1809" t="n">
-        <v>34.35316388435731</v>
+        <v>34.14895088900775</v>
       </c>
       <c r="D1809" t="n">
         <v>1</v>
       </c>
       <c r="E1809" t="n">
-        <v>-0.03612057689659887</v>
+        <v>-0.03612057689659931</v>
       </c>
       <c r="F1809" t="n">
         <v>-0.02861222793562468</v>
@@ -43871,16 +43871,16 @@
         </is>
       </c>
       <c r="B1810" t="n">
-        <v>34.35316388435731</v>
+        <v>34.14895088900775</v>
       </c>
       <c r="C1810" t="n">
-        <v>32.5407046962424</v>
+        <v>32.34726589685918</v>
       </c>
       <c r="D1810" t="n">
         <v>2</v>
       </c>
       <c r="E1810" t="n">
-        <v>-0.0527596000827224</v>
+        <v>-0.05275960008272229</v>
       </c>
       <c r="F1810" t="n">
         <v>0.04204928642871675</v>
@@ -43896,16 +43896,16 @@
         </is>
       </c>
       <c r="B1811" t="n">
-        <v>32.5407046962424</v>
+        <v>32.34726589685918</v>
       </c>
       <c r="C1811" t="n">
-        <v>30.14885533867826</v>
+        <v>29.96963493045624</v>
       </c>
       <c r="D1811" t="n">
         <v>3</v>
       </c>
       <c r="E1811" t="n">
-        <v>-0.0735033054720643</v>
+        <v>-0.07350330547206452</v>
       </c>
       <c r="F1811" t="n">
         <v>0.05588525805438338</v>
@@ -43921,16 +43921,16 @@
         </is>
       </c>
       <c r="B1812" t="n">
-        <v>30.14885533867826</v>
+        <v>29.96963493045624</v>
       </c>
       <c r="C1812" t="n">
-        <v>31.48919051171502</v>
+        <v>31.30200245715397</v>
       </c>
       <c r="D1812" t="n">
         <v>4</v>
       </c>
       <c r="E1812" t="n">
-        <v>0.04445724913865079</v>
+        <v>0.04445724913865146</v>
       </c>
       <c r="F1812" t="n">
         <v>0.06377185797954454</v>
@@ -43946,7 +43946,7 @@
         </is>
       </c>
       <c r="B1813" t="n">
-        <v>31.48919051171502</v>
+        <v>31.30200245715397</v>
       </c>
       <c r="C1813" t="inlineStr"/>
       <c r="D1813" t="n">
@@ -44253,16 +44253,16 @@
         </is>
       </c>
       <c r="B1826" t="n">
-        <v>18.17867474311384</v>
+        <v>18.11967222853056</v>
       </c>
       <c r="C1826" t="n">
-        <v>16.70026628793581</v>
+        <v>16.64606224285975</v>
       </c>
       <c r="D1826" t="n">
         <v>0</v>
       </c>
       <c r="E1826" t="n">
-        <v>-0.08132652550692976</v>
+        <v>-0.0813265255069302</v>
       </c>
       <c r="F1826" t="n">
         <v>-0.02508716602366845</v>
@@ -44278,16 +44278,16 @@
         </is>
       </c>
       <c r="B1827" t="n">
-        <v>16.70026628793581</v>
+        <v>16.64606224285975</v>
       </c>
       <c r="C1827" t="n">
-        <v>17.33463503598782</v>
+        <v>17.27837202061622</v>
       </c>
       <c r="D1827" t="n">
         <v>1</v>
       </c>
       <c r="E1827" t="n">
-        <v>0.03798554688378042</v>
+        <v>0.0379855468837802</v>
       </c>
       <c r="F1827" t="n">
         <v>-0.02861222793562468</v>
@@ -44303,16 +44303,16 @@
         </is>
       </c>
       <c r="B1828" t="n">
-        <v>17.33463503598782</v>
+        <v>17.27837202061622</v>
       </c>
       <c r="C1828" t="n">
-        <v>18.15463217590448</v>
+        <v>18.09570769626832</v>
       </c>
       <c r="D1828" t="n">
         <v>2</v>
       </c>
       <c r="E1828" t="n">
-        <v>0.04730397485809745</v>
+        <v>0.0473039748580979</v>
       </c>
       <c r="F1828" t="n">
         <v>0.04204928642871675</v>
@@ -44328,16 +44328,16 @@
         </is>
       </c>
       <c r="B1829" t="n">
-        <v>18.15463217590448</v>
+        <v>18.09570769626832</v>
       </c>
       <c r="C1829" t="n">
-        <v>18.07837692958206</v>
+        <v>18.01969995155678</v>
       </c>
       <c r="D1829" t="n">
         <v>3</v>
       </c>
       <c r="E1829" t="n">
-        <v>-0.004200318992066077</v>
+        <v>-0.004200318992067187</v>
       </c>
       <c r="F1829" t="n">
         <v>0.05588525805438338</v>
@@ -44353,16 +44353,16 @@
         </is>
       </c>
       <c r="B1830" t="n">
-        <v>18.07837692958206</v>
+        <v>18.01969995155678</v>
       </c>
       <c r="C1830" t="n">
-        <v>20.50890148489536</v>
+        <v>20.44233575466201</v>
       </c>
       <c r="D1830" t="n">
         <v>4</v>
       </c>
       <c r="E1830" t="n">
-        <v>0.134443737110945</v>
+        <v>0.1344437371109459</v>
       </c>
       <c r="F1830" t="n">
         <v>0.06377185797954454</v>
@@ -44378,7 +44378,7 @@
         </is>
       </c>
       <c r="B1831" t="n">
-        <v>20.50890148489536</v>
+        <v>20.44233575466201</v>
       </c>
       <c r="C1831" t="inlineStr"/>
       <c r="D1831" t="n">
@@ -44829,16 +44829,16 @@
         </is>
       </c>
       <c r="B1850" t="n">
-        <v>384.0180913331251</v>
+        <v>382.6406126770609</v>
       </c>
       <c r="C1850" t="n">
-        <v>346.4269432341138</v>
+        <v>345.1843045903613</v>
       </c>
       <c r="D1850" t="n">
         <v>0</v>
       </c>
       <c r="E1850" t="n">
-        <v>-0.09788900301158487</v>
+        <v>-0.09788900301158532</v>
       </c>
       <c r="F1850" t="n">
         <v>-0.02508716602366845</v>
@@ -44854,16 +44854,16 @@
         </is>
       </c>
       <c r="B1851" t="n">
-        <v>346.4269432341138</v>
+        <v>345.1843045903613</v>
       </c>
       <c r="C1851" t="n">
-        <v>308.3561195976501</v>
+        <v>307.2500415695603</v>
       </c>
       <c r="D1851" t="n">
         <v>1</v>
       </c>
       <c r="E1851" t="n">
-        <v>-0.1098956775158668</v>
+        <v>-0.1098956775158665</v>
       </c>
       <c r="F1851" t="n">
         <v>-0.02861222793562468</v>
@@ -44879,10 +44879,10 @@
         </is>
       </c>
       <c r="B1852" t="n">
-        <v>308.3561195976501</v>
+        <v>307.2500415695603</v>
       </c>
       <c r="C1852" t="n">
-        <v>346.3612181804778</v>
+        <v>345.1188152934791</v>
       </c>
       <c r="D1852" t="n">
         <v>2</v>
@@ -44904,16 +44904,16 @@
         </is>
       </c>
       <c r="B1853" t="n">
-        <v>346.3612181804778</v>
+        <v>345.1188152934791</v>
       </c>
       <c r="C1853" t="n">
-        <v>334.9676699758574</v>
+        <v>333.7661359172365</v>
       </c>
       <c r="D1853" t="n">
         <v>3</v>
       </c>
       <c r="E1853" t="n">
-        <v>-0.03289498825669213</v>
+        <v>-0.03289498825669235</v>
       </c>
       <c r="F1853" t="n">
         <v>0.05588525805438338</v>
@@ -44929,10 +44929,10 @@
         </is>
       </c>
       <c r="B1854" t="n">
-        <v>334.9676699758574</v>
+        <v>333.7661359172365</v>
       </c>
       <c r="C1854" t="n">
-        <v>357.6169663910782</v>
+        <v>356.3341889663478</v>
       </c>
       <c r="D1854" t="n">
         <v>4</v>
@@ -44954,7 +44954,7 @@
         </is>
       </c>
       <c r="B1855" t="n">
-        <v>357.6169663910782</v>
+        <v>356.3341889663478</v>
       </c>
       <c r="C1855" t="inlineStr"/>
       <c r="D1855" t="n">
@@ -45981,10 +45981,10 @@
         </is>
       </c>
       <c r="B1898" t="n">
-        <v>26.50253359809794</v>
+        <v>26.2861060779947</v>
       </c>
       <c r="C1898" t="n">
-        <v>25.6486716957257</v>
+        <v>25.43921706420901</v>
       </c>
       <c r="D1898" t="n">
         <v>0</v>
@@ -46006,16 +46006,16 @@
         </is>
       </c>
       <c r="B1899" t="n">
-        <v>25.6486716957257</v>
+        <v>25.43921706420901</v>
       </c>
       <c r="C1899" t="n">
-        <v>25.1624468486206</v>
+        <v>24.95696287287091</v>
       </c>
       <c r="D1899" t="n">
         <v>1</v>
       </c>
       <c r="E1899" t="n">
-        <v>-0.01895711609837958</v>
+        <v>-0.01895711609838002</v>
       </c>
       <c r="F1899" t="n">
         <v>-0.02861222793562468</v>
@@ -46031,16 +46031,16 @@
         </is>
       </c>
       <c r="B1900" t="n">
-        <v>25.1624468486206</v>
+        <v>24.95696287287091</v>
       </c>
       <c r="C1900" t="n">
-        <v>22.81635122804452</v>
+        <v>22.63002616233666</v>
       </c>
       <c r="D1900" t="n">
         <v>2</v>
       </c>
       <c r="E1900" t="n">
-        <v>-0.09323797620678098</v>
+        <v>-0.09323797620678087</v>
       </c>
       <c r="F1900" t="n">
         <v>0.04204928642871675</v>
@@ -46056,10 +46056,10 @@
         </is>
       </c>
       <c r="B1901" t="n">
-        <v>22.81635122804452</v>
+        <v>22.63002616233666</v>
       </c>
       <c r="C1901" t="n">
-        <v>23.61159892177293</v>
+        <v>23.41877962842512</v>
       </c>
       <c r="D1901" t="n">
         <v>3</v>
@@ -46081,16 +46081,16 @@
         </is>
       </c>
       <c r="B1902" t="n">
-        <v>23.61159892177293</v>
+        <v>23.41877962842512</v>
       </c>
       <c r="C1902" t="n">
-        <v>26.13515852791826</v>
+        <v>25.92173110118692</v>
       </c>
       <c r="D1902" t="n">
         <v>4</v>
       </c>
       <c r="E1902" t="n">
-        <v>0.1068779634325518</v>
+        <v>0.1068779634325516</v>
       </c>
       <c r="F1902" t="n">
         <v>0.06377185797954454</v>
@@ -46106,7 +46106,7 @@
         </is>
       </c>
       <c r="B1903" t="n">
-        <v>26.13515852791826</v>
+        <v>25.92173110118692</v>
       </c>
       <c r="C1903" t="inlineStr"/>
       <c r="D1903" t="n">
@@ -48717,10 +48717,10 @@
         </is>
       </c>
       <c r="B2012" t="n">
-        <v>324.1236932502064</v>
+        <v>322.4555089894944</v>
       </c>
       <c r="C2012" t="n">
-        <v>312.6799869363425</v>
+        <v>311.070700593785</v>
       </c>
       <c r="D2012" t="n">
         <v>0</v>
@@ -48742,16 +48742,16 @@
         </is>
       </c>
       <c r="B2013" t="n">
-        <v>312.6799869363425</v>
+        <v>311.070700593785</v>
       </c>
       <c r="C2013" t="n">
-        <v>268.7433187924049</v>
+        <v>267.3601635837084</v>
       </c>
       <c r="D2013" t="n">
         <v>1</v>
       </c>
       <c r="E2013" t="n">
-        <v>-0.1405164064845716</v>
+        <v>-0.1405164064845711</v>
       </c>
       <c r="F2013" t="n">
         <v>-0.02861222793562468</v>
@@ -48767,16 +48767,16 @@
         </is>
       </c>
       <c r="B2014" t="n">
-        <v>268.7433187924049</v>
+        <v>267.3601635837084</v>
       </c>
       <c r="C2014" t="n">
-        <v>266.4256667220713</v>
+        <v>265.0544398937619</v>
       </c>
       <c r="D2014" t="n">
         <v>2</v>
       </c>
       <c r="E2014" t="n">
-        <v>-0.008624036053241801</v>
+        <v>-0.008624036053241912</v>
       </c>
       <c r="F2014" t="n">
         <v>0.04204928642871675</v>
@@ -48792,16 +48792,16 @@
         </is>
       </c>
       <c r="B2015" t="n">
-        <v>266.4256667220713</v>
+        <v>265.0544398937619</v>
       </c>
       <c r="C2015" t="n">
-        <v>232.5213562078938</v>
+        <v>231.3246264569281</v>
       </c>
       <c r="D2015" t="n">
         <v>3</v>
       </c>
       <c r="E2015" t="n">
-        <v>-0.1272561721673221</v>
+        <v>-0.1272561721673223</v>
       </c>
       <c r="F2015" t="n">
         <v>0.05588525805438338</v>
@@ -48817,16 +48817,16 @@
         </is>
       </c>
       <c r="B2016" t="n">
-        <v>232.5213562078938</v>
+        <v>231.3246264569281</v>
       </c>
       <c r="C2016" t="n">
-        <v>216.9918691520725</v>
+        <v>215.8750658193939</v>
       </c>
       <c r="D2016" t="n">
         <v>4</v>
       </c>
       <c r="E2016" t="n">
-        <v>-0.06678735798330993</v>
+        <v>-0.0667873579833097</v>
       </c>
       <c r="F2016" t="n">
         <v>0.06377185797954454</v>
@@ -48842,7 +48842,7 @@
         </is>
       </c>
       <c r="B2017" t="n">
-        <v>216.9918691520725</v>
+        <v>215.8750658193939</v>
       </c>
       <c r="C2017" t="inlineStr"/>
       <c r="D2017" t="n">
@@ -58077,16 +58077,16 @@
         </is>
       </c>
       <c r="B2402" t="n">
-        <v>138.3678914083031</v>
+        <v>137.8301844335213</v>
       </c>
       <c r="C2402" t="n">
-        <v>155.9863053445727</v>
+        <v>155.3801320228539</v>
       </c>
       <c r="D2402" t="n">
         <v>0</v>
       </c>
       <c r="E2402" t="n">
-        <v>0.1273302191494725</v>
+        <v>0.1273302191494732</v>
       </c>
       <c r="F2402" t="n">
         <v>-0.02508716602366845</v>
@@ -58102,10 +58102,10 @@
         </is>
       </c>
       <c r="B2403" t="n">
-        <v>155.9863053445727</v>
+        <v>155.3801320228539</v>
       </c>
       <c r="C2403" t="n">
-        <v>136.5979138518016</v>
+        <v>136.0670851293924</v>
       </c>
       <c r="D2403" t="n">
         <v>1</v>
@@ -58127,16 +58127,16 @@
         </is>
       </c>
       <c r="B2404" t="n">
-        <v>136.5979138518016</v>
+        <v>136.0670851293924</v>
       </c>
       <c r="C2404" t="n">
-        <v>138.4333701115954</v>
+        <v>137.8954086821487</v>
       </c>
       <c r="D2404" t="n">
         <v>2</v>
       </c>
       <c r="E2404" t="n">
-        <v>0.01343692746131619</v>
+        <v>0.01343692746131553</v>
       </c>
       <c r="F2404" t="n">
         <v>0.04204928642871675</v>
@@ -58152,16 +58152,16 @@
         </is>
       </c>
       <c r="B2405" t="n">
-        <v>138.4333701115954</v>
+        <v>137.8954086821487</v>
       </c>
       <c r="C2405" t="n">
-        <v>147.1422057109791</v>
+        <v>146.5704011579843</v>
       </c>
       <c r="D2405" t="n">
         <v>3</v>
       </c>
       <c r="E2405" t="n">
-        <v>0.06290994427400864</v>
+        <v>0.06290994427400887</v>
       </c>
       <c r="F2405" t="n">
         <v>0.05588525805438338</v>
@@ -58177,16 +58177,16 @@
         </is>
       </c>
       <c r="B2406" t="n">
-        <v>147.1422057109791</v>
+        <v>146.5704011579843</v>
       </c>
       <c r="C2406" t="n">
-        <v>173.1929633555613</v>
+        <v>172.5199237982512</v>
       </c>
       <c r="D2406" t="n">
         <v>4</v>
       </c>
       <c r="E2406" t="n">
-        <v>0.1770447678061309</v>
+        <v>0.1770447678061315</v>
       </c>
       <c r="F2406" t="n">
         <v>0.06377185797954454</v>
@@ -58202,7 +58202,7 @@
         </is>
       </c>
       <c r="B2407" t="n">
-        <v>173.1929633555613</v>
+        <v>172.5199237982512</v>
       </c>
       <c r="C2407" t="inlineStr"/>
       <c r="D2407" t="n">
@@ -62397,16 +62397,16 @@
         </is>
       </c>
       <c r="B2582" t="n">
-        <v>33.47593416309161</v>
+        <v>33.13907263792771</v>
       </c>
       <c r="C2582" t="n">
-        <v>28.16323419626454</v>
+        <v>27.87983329164209</v>
       </c>
       <c r="D2582" t="n">
         <v>0</v>
       </c>
       <c r="E2582" t="n">
-        <v>-0.1587020676090499</v>
+        <v>-0.1587020676090498</v>
       </c>
       <c r="F2582" t="n">
         <v>-0.02508716602366845</v>
@@ -62422,16 +62422,16 @@
         </is>
       </c>
       <c r="B2583" t="n">
-        <v>28.16323419626454</v>
+        <v>27.87983329164209</v>
       </c>
       <c r="C2583" t="n">
-        <v>25.6741902497148</v>
+        <v>25.41583608870075</v>
       </c>
       <c r="D2583" t="n">
         <v>1</v>
       </c>
       <c r="E2583" t="n">
-        <v>-0.08837919427875496</v>
+        <v>-0.08837919427875518</v>
       </c>
       <c r="F2583" t="n">
         <v>-0.02861222793562468</v>
@@ -62447,10 +62447,10 @@
         </is>
       </c>
       <c r="B2584" t="n">
-        <v>25.6741902497148</v>
+        <v>25.41583608870075</v>
       </c>
       <c r="C2584" t="n">
-        <v>26.86537220301188</v>
+        <v>26.59503141997914</v>
       </c>
       <c r="D2584" t="n">
         <v>2</v>
@@ -62472,16 +62472,16 @@
         </is>
       </c>
       <c r="B2585" t="n">
-        <v>26.86537220301188</v>
+        <v>26.59503141997914</v>
       </c>
       <c r="C2585" t="n">
-        <v>28.33057143569314</v>
+        <v>28.04548665042328</v>
       </c>
       <c r="D2585" t="n">
         <v>3</v>
       </c>
       <c r="E2585" t="n">
-        <v>0.05453857931352202</v>
+        <v>0.0545385793135218</v>
       </c>
       <c r="F2585" t="n">
         <v>0.05588525805438338</v>
@@ -62497,16 +62497,16 @@
         </is>
       </c>
       <c r="B2586" t="n">
-        <v>28.33057143569314</v>
+        <v>28.04548665042328</v>
       </c>
       <c r="C2586" t="n">
-        <v>29.19730102971796</v>
+        <v>28.90349452061136</v>
       </c>
       <c r="D2586" t="n">
         <v>4</v>
       </c>
       <c r="E2586" t="n">
-        <v>0.03059343846954121</v>
+        <v>0.03059343846954166</v>
       </c>
       <c r="F2586" t="n">
         <v>0.06377185797954454</v>
@@ -62522,7 +62522,7 @@
         </is>
       </c>
       <c r="B2587" t="n">
-        <v>29.19730102971796</v>
+        <v>28.90349452061136</v>
       </c>
       <c r="C2587" t="inlineStr"/>
       <c r="D2587" t="n">
@@ -65421,16 +65421,16 @@
         </is>
       </c>
       <c r="B2708" t="n">
-        <v>59.29334807722555</v>
+        <v>58.71839710556689</v>
       </c>
       <c r="C2708" t="n">
-        <v>55.32440381526001</v>
+        <v>54.78793858329855</v>
       </c>
       <c r="D2708" t="n">
         <v>0</v>
       </c>
       <c r="E2708" t="n">
-        <v>-0.06693742874489494</v>
+        <v>-0.06693742874489506</v>
       </c>
       <c r="F2708" t="n">
         <v>-0.02508716602366845</v>
@@ -65446,10 +65446,10 @@
         </is>
       </c>
       <c r="B2709" t="n">
-        <v>55.32440381526001</v>
+        <v>54.78793858329855</v>
       </c>
       <c r="C2709" t="n">
-        <v>56.220057926112</v>
+        <v>55.67490778736075</v>
       </c>
       <c r="D2709" t="n">
         <v>1</v>
@@ -65471,16 +65471,16 @@
         </is>
       </c>
       <c r="B2710" t="n">
-        <v>56.220057926112</v>
+        <v>55.67490778736075</v>
       </c>
       <c r="C2710" t="n">
-        <v>58.08109013720037</v>
+        <v>57.51789409089373</v>
       </c>
       <c r="D2710" t="n">
         <v>2</v>
       </c>
       <c r="E2710" t="n">
-        <v>0.03310263773712685</v>
+        <v>0.03310263773712729</v>
       </c>
       <c r="F2710" t="n">
         <v>0.04204928642871675</v>
@@ -65496,16 +65496,16 @@
         </is>
       </c>
       <c r="B2711" t="n">
-        <v>58.08109013720037</v>
+        <v>57.51789409089373</v>
       </c>
       <c r="C2711" t="n">
-        <v>55.53967724589646</v>
+        <v>55.00112456783639</v>
       </c>
       <c r="D2711" t="n">
         <v>3</v>
       </c>
       <c r="E2711" t="n">
-        <v>-0.04375628772291529</v>
+        <v>-0.04375628772291562</v>
       </c>
       <c r="F2711" t="n">
         <v>0.05588525805438338</v>
@@ -65521,16 +65521,16 @@
         </is>
       </c>
       <c r="B2712" t="n">
-        <v>55.53967724589646</v>
+        <v>55.00112456783639</v>
       </c>
       <c r="C2712" t="n">
-        <v>59.55480450422497</v>
+        <v>58.97731826290075</v>
       </c>
       <c r="D2712" t="n">
         <v>4</v>
       </c>
       <c r="E2712" t="n">
-        <v>0.07229295266790858</v>
+        <v>0.07229295266790903</v>
       </c>
       <c r="F2712" t="n">
         <v>0.06377185797954454</v>
@@ -65546,7 +65546,7 @@
         </is>
       </c>
       <c r="B2713" t="n">
-        <v>59.55480450422497</v>
+        <v>58.97731826290075</v>
       </c>
       <c r="C2713" t="inlineStr"/>
       <c r="D2713" t="n">
@@ -68157,16 +68157,16 @@
         </is>
       </c>
       <c r="B2822" t="n">
-        <v>301.2224428589114</v>
+        <v>298.1683777381682</v>
       </c>
       <c r="C2822" t="n">
-        <v>293.6185884702169</v>
+        <v>290.6416180913239</v>
       </c>
       <c r="D2822" t="n">
         <v>0</v>
       </c>
       <c r="E2822" t="n">
-        <v>-0.02524331957647674</v>
+        <v>-0.02524331957647685</v>
       </c>
       <c r="F2822" t="n">
         <v>-0.02508716602366845</v>
@@ -68182,16 +68182,16 @@
         </is>
       </c>
       <c r="B2823" t="n">
-        <v>293.6185884702169</v>
+        <v>290.6416180913239</v>
       </c>
       <c r="C2823" t="n">
-        <v>267.3396010126668</v>
+        <v>264.6290707377743</v>
       </c>
       <c r="D2823" t="n">
         <v>1</v>
       </c>
       <c r="E2823" t="n">
-        <v>-0.08950042159955329</v>
+        <v>-0.08950042159955274</v>
       </c>
       <c r="F2823" t="n">
         <v>-0.02861222793562468</v>
@@ -68207,16 +68207,16 @@
         </is>
       </c>
       <c r="B2824" t="n">
-        <v>267.3396010126668</v>
+        <v>264.6290707377743</v>
       </c>
       <c r="C2824" t="n">
-        <v>271.6509410938</v>
+        <v>268.896698560151</v>
       </c>
       <c r="D2824" t="n">
         <v>2</v>
       </c>
       <c r="E2824" t="n">
-        <v>0.016126829189548</v>
+        <v>0.01612682918954755</v>
       </c>
       <c r="F2824" t="n">
         <v>0.04204928642871675</v>
@@ -68232,16 +68232,16 @@
         </is>
       </c>
       <c r="B2825" t="n">
-        <v>271.6509410938</v>
+        <v>268.896698560151</v>
       </c>
       <c r="C2825" t="n">
-        <v>271.9837005665962</v>
+        <v>269.2260842169399</v>
       </c>
       <c r="D2825" t="n">
         <v>3</v>
       </c>
       <c r="E2825" t="n">
-        <v>0.001224952401992052</v>
+        <v>0.001224952401991608</v>
       </c>
       <c r="F2825" t="n">
         <v>0.05588525805438338</v>
@@ -68257,16 +68257,16 @@
         </is>
       </c>
       <c r="B2826" t="n">
-        <v>271.9837005665962</v>
+        <v>269.2260842169399</v>
       </c>
       <c r="C2826" t="n">
-        <v>264.2347519421184</v>
+        <v>261.5557014306907</v>
       </c>
       <c r="D2826" t="n">
         <v>4</v>
       </c>
       <c r="E2826" t="n">
-        <v>-0.0284904889827412</v>
+        <v>-0.02849048898274087</v>
       </c>
       <c r="F2826" t="n">
         <v>0.06377185797954454</v>
@@ -68282,7 +68282,7 @@
         </is>
       </c>
       <c r="B2827" t="n">
-        <v>264.2347519421184</v>
+        <v>261.5557014306907</v>
       </c>
       <c r="C2827" t="inlineStr"/>
       <c r="D2827" t="n">
